--- a/data/trans_bre/P2A_fisi_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P2A_fisi_R-Clase-trans_bre.xlsx
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas con limitación, discapacidad física</t>
+          <t>Hogares con personas con limitación por discapacidad física</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 2,94</t>
+          <t>-2,48; 2,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 5,04</t>
+          <t>-2,39; 4,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 4,42</t>
+          <t>-2,05; 4,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,28; 0,38</t>
+          <t>-6,7; 0,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-58,77; 147,9</t>
+          <t>-58,78; 133,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-45,13; 173,25</t>
+          <t>-41,54; 158,1</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-41,26; 171,37</t>
+          <t>-42,91; 179,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-56,85; 6,88</t>
+          <t>-58,68; 2,03</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 4,66</t>
+          <t>-1,24; 4,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 4,57</t>
+          <t>-2,8; 4,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 1,53</t>
+          <t>-4,04; 1,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 2,55</t>
+          <t>-4,06; 2,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-35,16; 305,25</t>
+          <t>-36,05; 313,88</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-43,84; 116,2</t>
+          <t>-41,37; 106,11</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-72,33; 54,45</t>
+          <t>-68,17; 56,42</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-43,54; 48,21</t>
+          <t>-44,87; 44,14</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 7,07</t>
+          <t>-1,98; 7,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 5,14</t>
+          <t>-3,68; 4,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 7,5</t>
+          <t>-2,75; 8,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 12,96</t>
+          <t>-2,91; 13,97</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-28,27; 140,89</t>
+          <t>-29,8; 157,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-35,88; 77,82</t>
+          <t>-37,18; 68,07</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-36,55; 143,7</t>
+          <t>-39,98; 159,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-22,17; 383,49</t>
+          <t>-23,08; 341,44</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 3,16</t>
+          <t>-2,03; 2,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 3,48</t>
+          <t>-2,11; 3,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 3,25</t>
+          <t>-1,73; 2,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 49,64</t>
+          <t>-4,19; 51,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-24,12; 57,25</t>
+          <t>-29,36; 48,71</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-22,6; 43,5</t>
+          <t>-20,42; 41,03</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-22,37; 61,59</t>
+          <t>-24,53; 52,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-33,85; 444,4</t>
+          <t>-34,06; 468,93</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 4,21</t>
+          <t>-2,38; 4,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,08; 7,51</t>
+          <t>0,96; 7,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 5,24</t>
+          <t>-0,61; 5,27</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,09; 0,04</t>
+          <t>-9,2; -0,52</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-31,58; 93,47</t>
+          <t>-28,66; 111,51</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,14; 140,98</t>
+          <t>9,88; 148,77</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 120,57</t>
+          <t>-9,05; 123,88</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-45,91; -0,44</t>
+          <t>-46,11; -3,87</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,94; 6,26</t>
+          <t>1,66; 6,37</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,96; 7,43</t>
+          <t>0,74; 7,36</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 5,78</t>
+          <t>-0,41; 5,83</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,57; 14,07</t>
+          <t>4,97; 14,05</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>43,2; 680,23</t>
+          <t>28,3; 726,87</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>10,47; 305,91</t>
+          <t>4,76; 282,56</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 214,52</t>
+          <t>-6,48; 197,66</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>53,21; 587,3</t>
+          <t>49,9; 648,64</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,11; 2,38</t>
+          <t>0,19; 2,51</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,51; 3,27</t>
+          <t>0,31; 3,09</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,07; 2,55</t>
+          <t>0,14; 2,57</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 23,47</t>
+          <t>-0,25; 20,81</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,4; 54,81</t>
+          <t>2,82; 56,4</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,68; 50,44</t>
+          <t>4,17; 46,44</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,9; 50,21</t>
+          <t>2,06; 51,2</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 234,55</t>
+          <t>-2,67; 210,66</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2A_fisi_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P2A_fisi_R-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
